--- a/pics/CNN_vs_ViT.xlsx
+++ b/pics/CNN_vs_ViT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dreamer-Programming\ViT\timm\result\pics\CNN1D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dreamer-Programming\ViT\timm\pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789252E0-58BD-457E-8CF7-B3C69B2958C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10289E8A-34BC-4FB4-A8CE-00B14F42CEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="21820" windowHeight="13120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>ViT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1973,9 +1973,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39226387318880801"/>
-          <c:y val="0.92081213612546864"/>
-          <c:w val="0.20070085936430795"/>
+          <c:x val="0.32961331941940997"/>
+          <c:y val="0.92081223404448131"/>
+          <c:w val="0.3067249786547766"/>
           <c:h val="6.0633458664270667E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -5703,16 +5703,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>154215</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5747,13 +5747,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6085,7 +6085,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7560,7 +7560,14 @@
         <v>2.9627999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7573,7 +7580,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
